--- a/chart q11.xlsx
+++ b/chart q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celine\Documents\NSS-data-analytics\projects\lahman-baseball-data-fighting-farmers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C6A858-CF70-4266-887F-181010581E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7F65E-0BD3-4C1F-9ED8-2338A4E7F633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E298B99E-32AA-4AB8-80BC-28958A41332E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="47">
   <si>
     <t>yearid</t>
   </si>
@@ -162,6 +162,24 @@
   <si>
     <t>Sum of salary</t>
   </si>
+  <si>
+    <t>drop in 2013</t>
+  </si>
+  <si>
+    <t>both increase</t>
+  </si>
+  <si>
+    <t>2008 opposite effect</t>
+  </si>
+  <si>
+    <t>both increase until 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but then win decreases even though </t>
+  </si>
+  <si>
+    <t>salary keeps increasing</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +259,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Book1.xlsx]chart!PivotTable1</c:name>
+    <c:name>[chart q11.xlsx]chart!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -450,29 +468,50 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>chart!$A$4:$A$10</c:f>
+              <c:f>chart!$A$4:$A$17</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2000</c:v>
+                    <c:v>2005</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2001</c:v>
+                    <c:v>2006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2002</c:v>
+                    <c:v>2007</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2003</c:v>
+                    <c:v>2008</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2004</c:v>
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>MON</c:v>
+                    <c:v>WAS</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -480,24 +519,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$C$4:$C$10</c:f>
+              <c:f>chart!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32994333</c:v>
+                  <c:v>48581500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35159500</c:v>
+                  <c:v>63143000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38670500</c:v>
+                  <c:v>36947500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51948500</c:v>
+                  <c:v>54961000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40897500</c:v>
+                  <c:v>59928000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63856928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80855143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113703270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131983680</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155587472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141652646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,29 +670,50 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>chart!$A$4:$A$10</c:f>
+              <c:f>chart!$A$4:$A$17</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2000</c:v>
+                    <c:v>2005</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2001</c:v>
+                    <c:v>2006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2002</c:v>
+                    <c:v>2007</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2003</c:v>
+                    <c:v>2008</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2004</c:v>
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>MON</c:v>
+                    <c:v>WAS</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -640,24 +721,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$B$4:$B$10</c:f>
+              <c:f>chart!$B$4:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67</c:v>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,6 +945,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="497229680"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4698,7 +4801,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFE48FD-DB0F-49FB-9305-6B57E13980A8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="19">
@@ -4725,7 +4828,7 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="35">
-        <item x="19"/>
+        <item h="1" x="19"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
@@ -4757,7 +4860,7 @@
         <item h="1" x="29"/>
         <item h="1" x="30"/>
         <item h="1" x="31"/>
-        <item h="1" x="32"/>
+        <item x="32"/>
         <item h="1" x="33"/>
         <item t="default"/>
       </items>
@@ -4769,24 +4872,45 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="14">
     <i>
-      <x/>
+      <x v="32"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="3"/>
+      <x v="8"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -12308,10 +12432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458A6A32-53DA-4F29-A4F7-0D5DA257FC0B}">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12321,7 +12445,7 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -12332,81 +12456,196 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5">
-        <v>368</v>
+        <v>950</v>
       </c>
       <c r="C4" s="5">
-        <v>199670333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1012600139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="B5" s="5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5">
-        <v>32994333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48581500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B6" s="5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5">
-        <v>35159500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63143000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B7" s="5">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5">
+        <v>36947500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="5">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5">
+        <v>54961000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="5">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5">
+        <v>59928000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="5">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>61400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="5">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5">
+        <v>63856928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="5">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5">
+        <v>80855143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="5">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5">
+        <v>113703270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="5">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5">
+        <v>131983680</v>
+      </c>
+      <c r="X14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="5">
         <v>83</v>
       </c>
-      <c r="C7" s="5">
-        <v>38670500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="5">
-        <v>83</v>
-      </c>
-      <c r="C8" s="5">
-        <v>51948500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="5">
-        <v>67</v>
-      </c>
-      <c r="C9" s="5">
-        <v>40897500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C15" s="5">
+        <v>155587472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="5">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5">
+        <v>141652646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5">
-        <v>368</v>
-      </c>
-      <c r="C10" s="5">
-        <v>199670333</v>
+      <c r="B17" s="5">
+        <v>950</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1012600139</v>
+      </c>
+      <c r="X17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/chart q11.xlsx
+++ b/chart q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celine\Documents\NSS-data-analytics\projects\lahman-baseball-data-fighting-farmers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7F65E-0BD3-4C1F-9ED8-2338A4E7F633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8A666-E184-491E-9F1D-3407DEABF760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E298B99E-32AA-4AB8-80BC-28958A41332E}"/>
   </bookViews>
@@ -16,11 +16,22 @@
     <sheet name="q11" sheetId="1" r:id="rId1"/>
     <sheet name="chart" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_teamid">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -468,50 +479,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>chart!$A$4:$A$17</c:f>
+              <c:f>chart!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2005</c:v>
+                    <c:v>2012</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2006</c:v>
+                    <c:v>2013</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2007</c:v>
+                    <c:v>2014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2008</c:v>
+                    <c:v>2015</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2014</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2015</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>WAS</c:v>
+                    <c:v>MIA</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -519,45 +509,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$C$4:$C$17</c:f>
+              <c:f>chart!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48581500</c:v>
+                  <c:v>118078000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63143000</c:v>
+                  <c:v>33601900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36947500</c:v>
+                  <c:v>41836900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54961000</c:v>
+                  <c:v>68056500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59928000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63856928</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80855143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113703270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131983680</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>155587472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>141652646</c:v>
+                  <c:v>77314202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,50 +639,29 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>chart!$A$4:$A$17</c:f>
+              <c:f>chart!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2005</c:v>
+                    <c:v>2012</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2006</c:v>
+                    <c:v>2013</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2007</c:v>
+                    <c:v>2014</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2008</c:v>
+                    <c:v>2015</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2014</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2015</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>2016</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>WAS</c:v>
+                    <c:v>MIA</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -721,45 +669,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$B$4:$B$17</c:f>
+              <c:f>chart!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1642,6 +1569,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="teamid">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B71F0B-E693-48F0-8F1C-5D0FDF05C917}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="teamid"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1352550" y="276225"/>
+              <a:ext cx="1828800" cy="6343650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1714,7 +1719,61 @@
       </sharedItems>
     </cacheField>
     <cacheField name="win" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="43" maxValue="116"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="43" maxValue="116" count="53">
+        <n v="82"/>
+        <n v="75"/>
+        <n v="99"/>
+        <n v="77"/>
+        <n v="92"/>
+        <n v="85"/>
+        <n v="98"/>
+        <n v="84"/>
+        <n v="51"/>
+        <n v="76"/>
+        <n v="90"/>
+        <n v="70"/>
+        <n v="65"/>
+        <n v="94"/>
+        <n v="81"/>
+        <n v="64"/>
+        <n v="79"/>
+        <n v="69"/>
+        <n v="95"/>
+        <n v="88"/>
+        <n v="101"/>
+        <n v="96"/>
+        <n v="72"/>
+        <n v="86"/>
+        <n v="91"/>
+        <n v="89"/>
+        <n v="67"/>
+        <n v="68"/>
+        <n v="74"/>
+        <n v="63"/>
+        <n v="71"/>
+        <n v="78"/>
+        <n v="66"/>
+        <n v="93"/>
+        <n v="97"/>
+        <n v="83"/>
+        <n v="73"/>
+        <n v="61"/>
+        <n v="103"/>
+        <n v="80"/>
+        <n v="55"/>
+        <n v="43"/>
+        <n v="87"/>
+        <n v="56"/>
+        <n v="62"/>
+        <n v="58"/>
+        <n v="100"/>
+        <n v="59"/>
+        <n v="102"/>
+        <n v="57"/>
+        <n v="116"/>
+        <n v="105"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="salary" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="14671500" maxValue="231978886"/>
@@ -1722,7 +1781,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="622244580"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1733,3075 +1792,3075 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="51464167"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="47535167"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="99"/>
+    <x v="2"/>
     <n v="61721667"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="79031667"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="100534667"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="81027833"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="85082999"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="98"/>
+    <x v="6"/>
     <n v="102819999"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="80657000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="51"/>
+    <x v="8"/>
     <n v="69780750"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="62329166"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="59684226"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="52067546"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="66202712"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="73115666"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="60718166"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="53639833"/>
   </r>
   <r>
     <x v="12"/>
     <x v="1"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="73804833"/>
   </r>
   <r>
     <x v="13"/>
     <x v="1"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="90132000"/>
   </r>
   <r>
     <x v="14"/>
     <x v="1"/>
-    <n v="64"/>
+    <x v="15"/>
     <n v="97861500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="61834000"/>
   </r>
   <r>
     <x v="16"/>
     <x v="1"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="87439063"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="84537836"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="91936166"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="101"/>
+    <x v="20"/>
     <n v="92870367"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="101"/>
+    <x v="20"/>
     <n v="106243667"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="90182500"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="86457302"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="90156876"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="87290833"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="102365683"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="96726166"/>
   </r>
   <r>
     <x v="10"/>
     <x v="2"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="84423666"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="87002692"/>
   </r>
   <r>
     <x v="12"/>
     <x v="2"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="82829942"/>
   </r>
   <r>
     <x v="13"/>
     <x v="2"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="87871525"/>
   </r>
   <r>
     <x v="14"/>
     <x v="2"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="97609000"/>
   </r>
   <r>
     <x v="15"/>
     <x v="2"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="71781250"/>
   </r>
   <r>
     <x v="16"/>
     <x v="2"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="68498291"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="81447435"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="67599540"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="60493487"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="73877500"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="51623333"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="73914333"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="72585582"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="93174808"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="67196246"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
-    <n v="64"/>
+    <x v="15"/>
     <n v="67101666"/>
   </r>
   <r>
     <x v="10"/>
     <x v="3"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="81612500"/>
   </r>
   <r>
     <x v="11"/>
     <x v="3"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="85304038"/>
   </r>
   <r>
     <x v="12"/>
     <x v="3"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="77353999"/>
   </r>
   <r>
     <x v="13"/>
     <x v="3"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="84393333"/>
   </r>
   <r>
     <x v="14"/>
     <x v="3"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="103416000"/>
   </r>
   <r>
     <x v="15"/>
     <x v="3"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="115044833"/>
   </r>
   <r>
     <x v="16"/>
     <x v="3"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="161863456"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="77940333"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="110035833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="108366060"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="99946500"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="98"/>
+    <x v="6"/>
     <n v="127298500"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="123505125"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="120099824"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="143026214"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="133390035"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="121345999"/>
   </r>
   <r>
     <x v="10"/>
     <x v="4"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="162447333"/>
   </r>
   <r>
     <x v="11"/>
     <x v="4"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="161762475"/>
   </r>
   <r>
     <x v="12"/>
     <x v="4"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="173186617"/>
   </r>
   <r>
     <x v="13"/>
     <x v="4"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="151530000"/>
   </r>
   <r>
     <x v="14"/>
     <x v="4"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="139019929"/>
   </r>
   <r>
     <x v="15"/>
     <x v="4"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="181103400"/>
   </r>
   <r>
     <x v="16"/>
     <x v="4"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="188545761"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="31133500"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="65653667"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="57052833"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="51010000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="65212500"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
-    <n v="99"/>
+    <x v="2"/>
     <n v="75178000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="102750667"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="108671833"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="121189332"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="96068500"/>
   </r>
   <r>
     <x v="10"/>
     <x v="5"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="105530000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="5"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="127789000"/>
   </r>
   <r>
     <x v="12"/>
     <x v="5"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="96919500"/>
   </r>
   <r>
     <x v="13"/>
     <x v="5"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="120065277"/>
   </r>
   <r>
     <x v="14"/>
     <x v="5"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="81830500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="5"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="112373700"/>
   </r>
   <r>
     <x v="16"/>
     <x v="5"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="112998667"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="60539333"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="64715833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="75690833"/>
   </r>
   <r>
     <x v="3"/>
     <x v="6"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="79868333"/>
   </r>
   <r>
     <x v="4"/>
     <x v="6"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="90560000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="6"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="87032933"/>
   </r>
   <r>
     <x v="6"/>
     <x v="6"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="94424499"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="99670332"/>
   </r>
   <r>
     <x v="8"/>
     <x v="6"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="118345833"/>
   </r>
   <r>
     <x v="9"/>
     <x v="6"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="134809000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="6"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="146609000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="6"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="125047329"/>
   </r>
   <r>
     <x v="12"/>
     <x v="6"/>
-    <n v="61"/>
+    <x v="37"/>
     <n v="88197033"/>
   </r>
   <r>
     <x v="13"/>
     <x v="6"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="100567726"/>
   </r>
   <r>
     <x v="14"/>
     <x v="6"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="65522500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="6"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="115879310"/>
   </r>
   <r>
     <x v="16"/>
     <x v="6"/>
-    <n v="103"/>
+    <x v="38"/>
     <n v="154067668"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="46867200"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="48986000"/>
   </r>
   <r>
     <x v="2"/>
     <x v="7"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="45050390"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="59355667"/>
   </r>
   <r>
     <x v="4"/>
     <x v="7"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="46615250"/>
   </r>
   <r>
     <x v="5"/>
     <x v="7"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="61892583"/>
   </r>
   <r>
     <x v="6"/>
     <x v="7"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="60909519"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="68524980"/>
   </r>
   <r>
     <x v="8"/>
     <x v="7"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="74117695"/>
   </r>
   <r>
     <x v="9"/>
     <x v="7"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="73558500"/>
   </r>
   <r>
     <x v="10"/>
     <x v="7"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="71761542"/>
   </r>
   <r>
     <x v="11"/>
     <x v="7"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="75947134"/>
   </r>
   <r>
     <x v="12"/>
     <x v="7"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="82203616"/>
   </r>
   <r>
     <x v="13"/>
     <x v="7"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="106404462"/>
   </r>
   <r>
     <x v="14"/>
     <x v="7"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="108217500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="7"/>
-    <n v="64"/>
+    <x v="15"/>
     <n v="113072286"/>
   </r>
   <r>
     <x v="16"/>
     <x v="7"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="88940059"/>
   </r>
   <r>
     <x v="0"/>
     <x v="8"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="75880771"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="93152001"/>
   </r>
   <r>
     <x v="2"/>
     <x v="8"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="78909449"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="48584834"/>
   </r>
   <r>
     <x v="4"/>
     <x v="8"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="34319300"/>
   </r>
   <r>
     <x v="5"/>
     <x v="8"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="41502500"/>
   </r>
   <r>
     <x v="6"/>
     <x v="8"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="56031500"/>
   </r>
   <r>
     <x v="7"/>
     <x v="8"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="61673267"/>
   </r>
   <r>
     <x v="8"/>
     <x v="8"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="78970066"/>
   </r>
   <r>
     <x v="9"/>
     <x v="8"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="81579166"/>
   </r>
   <r>
     <x v="10"/>
     <x v="8"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="61203966"/>
   </r>
   <r>
     <x v="11"/>
     <x v="8"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="48776566"/>
   </r>
   <r>
     <x v="12"/>
     <x v="8"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="78430300"/>
   </r>
   <r>
     <x v="13"/>
     <x v="8"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="75771800"/>
   </r>
   <r>
     <x v="14"/>
     <x v="8"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="82151899"/>
   </r>
   <r>
     <x v="15"/>
     <x v="8"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="87663766"/>
   </r>
   <r>
     <x v="16"/>
     <x v="8"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="74311900"/>
   </r>
   <r>
     <x v="0"/>
     <x v="9"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="61111190"/>
   </r>
   <r>
     <x v="1"/>
     <x v="9"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="71541334"/>
   </r>
   <r>
     <x v="2"/>
     <x v="9"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="56851043"/>
   </r>
   <r>
     <x v="3"/>
     <x v="9"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="67179667"/>
   </r>
   <r>
     <x v="4"/>
     <x v="9"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="65445167"/>
   </r>
   <r>
     <x v="5"/>
     <x v="9"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="47839000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="9"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="41233000"/>
   </r>
   <r>
     <x v="7"/>
     <x v="9"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="54041000"/>
   </r>
   <r>
     <x v="8"/>
     <x v="9"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="68655500"/>
   </r>
   <r>
     <x v="9"/>
     <x v="9"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="75201000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="9"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="84227000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="9"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="88148071"/>
   </r>
   <r>
     <x v="12"/>
     <x v="9"/>
-    <n v="64"/>
+    <x v="15"/>
     <n v="78069571"/>
   </r>
   <r>
     <x v="13"/>
     <x v="9"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="74409071"/>
   </r>
   <r>
     <x v="14"/>
     <x v="9"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="95403500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="9"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="95688600"/>
   </r>
   <r>
     <x v="16"/>
     <x v="9"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="112645071"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="58265167"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="53416167"/>
   </r>
   <r>
     <x v="2"/>
     <x v="10"/>
-    <n v="55"/>
+    <x v="40"/>
     <n v="55048000"/>
   </r>
   <r>
     <x v="3"/>
     <x v="10"/>
-    <n v="43"/>
+    <x v="41"/>
     <n v="49168000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="10"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="46832000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="10"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="69092000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="10"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="82612866"/>
   </r>
   <r>
     <x v="7"/>
     <x v="10"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="94800369"/>
   </r>
   <r>
     <x v="8"/>
     <x v="10"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="137685196"/>
   </r>
   <r>
     <x v="9"/>
     <x v="10"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="115085145"/>
   </r>
   <r>
     <x v="10"/>
     <x v="10"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="122864928"/>
   </r>
   <r>
     <x v="11"/>
     <x v="10"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="105700231"/>
   </r>
   <r>
     <x v="12"/>
     <x v="10"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="132300000"/>
   </r>
   <r>
     <x v="13"/>
     <x v="10"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="145989500"/>
   </r>
   <r>
     <x v="14"/>
     <x v="10"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="152855500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="10"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="172284750"/>
   </r>
   <r>
     <x v="16"/>
     <x v="10"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="194876481"/>
   </r>
   <r>
     <x v="0"/>
     <x v="11"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="19872000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="11"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="35762500"/>
   </r>
   <r>
     <x v="2"/>
     <x v="11"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="41979917"/>
   </r>
   <r>
     <x v="3"/>
     <x v="11"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="49450000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="11"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="42143042"/>
   </r>
   <r>
     <x v="5"/>
     <x v="11"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="60408834"/>
   </r>
   <r>
     <x v="6"/>
     <x v="11"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="14671500"/>
   </r>
   <r>
     <x v="7"/>
     <x v="11"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="30507000"/>
   </r>
   <r>
     <x v="8"/>
     <x v="11"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="21811500"/>
   </r>
   <r>
     <x v="9"/>
     <x v="11"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="36834000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="11"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="57029719"/>
   </r>
   <r>
     <x v="11"/>
     <x v="11"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="56944000"/>
   </r>
   <r>
     <x v="0"/>
     <x v="12"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="51289111"/>
   </r>
   <r>
     <x v="1"/>
     <x v="12"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="60612667"/>
   </r>
   <r>
     <x v="2"/>
     <x v="12"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="63448417"/>
   </r>
   <r>
     <x v="3"/>
     <x v="12"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="71040000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="12"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="75397000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="12"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="76779000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="12"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="88694435"/>
   </r>
   <r>
     <x v="7"/>
     <x v="12"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="87759000"/>
   </r>
   <r>
     <x v="8"/>
     <x v="12"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="88930414"/>
   </r>
   <r>
     <x v="9"/>
     <x v="12"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="102996414"/>
   </r>
   <r>
     <x v="10"/>
     <x v="12"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="92355500"/>
   </r>
   <r>
     <x v="11"/>
     <x v="12"/>
-    <n v="56"/>
+    <x v="43"/>
     <n v="70694000"/>
   </r>
   <r>
     <x v="12"/>
     <x v="12"/>
-    <n v="55"/>
+    <x v="40"/>
     <n v="60651000"/>
   </r>
   <r>
     <x v="13"/>
     <x v="12"/>
-    <n v="51"/>
+    <x v="8"/>
     <n v="17890700"/>
   </r>
   <r>
     <x v="14"/>
     <x v="12"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="35116300"/>
   </r>
   <r>
     <x v="15"/>
     <x v="12"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="72256200"/>
   </r>
   <r>
     <x v="16"/>
     <x v="12"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="94893700"/>
   </r>
   <r>
     <x v="0"/>
     <x v="13"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="23433000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="13"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="35422500"/>
   </r>
   <r>
     <x v="2"/>
     <x v="13"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="47257000"/>
   </r>
   <r>
     <x v="3"/>
     <x v="13"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="40518000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="13"/>
-    <n v="58"/>
+    <x v="45"/>
     <n v="47609000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="13"/>
-    <n v="56"/>
+    <x v="43"/>
     <n v="36881000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="13"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="47294000"/>
   </r>
   <r>
     <x v="7"/>
     <x v="13"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="67116500"/>
   </r>
   <r>
     <x v="8"/>
     <x v="13"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="58245500"/>
   </r>
   <r>
     <x v="9"/>
     <x v="13"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="70519333"/>
   </r>
   <r>
     <x v="10"/>
     <x v="13"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="71405210"/>
   </r>
   <r>
     <x v="11"/>
     <x v="13"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="35712000"/>
   </r>
   <r>
     <x v="12"/>
     <x v="13"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="60916225"/>
   </r>
   <r>
     <x v="13"/>
     <x v="13"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="80091725"/>
   </r>
   <r>
     <x v="14"/>
     <x v="13"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="74594075"/>
   </r>
   <r>
     <x v="15"/>
     <x v="13"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="112107025"/>
   </r>
   <r>
     <x v="16"/>
     <x v="13"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="131487125"/>
   </r>
   <r>
     <x v="5"/>
     <x v="14"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="94867822"/>
   </r>
   <r>
     <x v="6"/>
     <x v="14"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="103472000"/>
   </r>
   <r>
     <x v="7"/>
     <x v="14"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="109251333"/>
   </r>
   <r>
     <x v="8"/>
     <x v="14"/>
-    <n v="100"/>
+    <x v="46"/>
     <n v="119216333"/>
   </r>
   <r>
     <x v="9"/>
     <x v="14"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="113709000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="14"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="104963866"/>
   </r>
   <r>
     <x v="11"/>
     <x v="14"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="138543166"/>
   </r>
   <r>
     <x v="12"/>
     <x v="14"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="154485166"/>
   </r>
   <r>
     <x v="13"/>
     <x v="14"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="124174750"/>
   </r>
   <r>
     <x v="14"/>
     <x v="14"/>
-    <n v="98"/>
+    <x v="6"/>
     <n v="121988250"/>
   </r>
   <r>
     <x v="15"/>
     <x v="14"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="120005415"/>
   </r>
   <r>
     <x v="16"/>
     <x v="14"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="137251333"/>
   </r>
   <r>
     <x v="0"/>
     <x v="15"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="87924286"/>
   </r>
   <r>
     <x v="1"/>
     <x v="15"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="109105953"/>
   </r>
   <r>
     <x v="2"/>
     <x v="15"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="94850953"/>
   </r>
   <r>
     <x v="3"/>
     <x v="15"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="105572620"/>
   </r>
   <r>
     <x v="4"/>
     <x v="15"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="92902001"/>
   </r>
   <r>
     <x v="5"/>
     <x v="15"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="83039000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="15"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="98447187"/>
   </r>
   <r>
     <x v="7"/>
     <x v="15"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="108454524"/>
   </r>
   <r>
     <x v="8"/>
     <x v="15"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="118588536"/>
   </r>
   <r>
     <x v="9"/>
     <x v="15"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="100414592"/>
   </r>
   <r>
     <x v="10"/>
     <x v="15"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="95358016"/>
   </r>
   <r>
     <x v="11"/>
     <x v="15"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="104188999"/>
   </r>
   <r>
     <x v="12"/>
     <x v="15"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="95143575"/>
   </r>
   <r>
     <x v="13"/>
     <x v="15"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="223362196"/>
   </r>
   <r>
     <x v="14"/>
     <x v="15"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="217014600"/>
   </r>
   <r>
     <x v="15"/>
     <x v="15"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="215792000"/>
   </r>
   <r>
     <x v="16"/>
     <x v="15"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="221288380"/>
   </r>
   <r>
     <x v="12"/>
     <x v="16"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="118078000"/>
   </r>
   <r>
     <x v="13"/>
     <x v="16"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="33601900"/>
   </r>
   <r>
     <x v="14"/>
     <x v="16"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="41836900"/>
   </r>
   <r>
     <x v="15"/>
     <x v="16"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="68056500"/>
   </r>
   <r>
     <x v="16"/>
     <x v="16"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="77314202"/>
   </r>
   <r>
     <x v="0"/>
     <x v="17"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="36505333"/>
   </r>
   <r>
     <x v="1"/>
     <x v="17"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="43886833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="17"/>
-    <n v="56"/>
+    <x v="43"/>
     <n v="50287833"/>
   </r>
   <r>
     <x v="3"/>
     <x v="17"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="40627000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="17"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="27528500"/>
   </r>
   <r>
     <x v="5"/>
     <x v="17"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="39934833"/>
   </r>
   <r>
     <x v="6"/>
     <x v="17"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="57568333"/>
   </r>
   <r>
     <x v="7"/>
     <x v="17"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="70986500"/>
   </r>
   <r>
     <x v="8"/>
     <x v="17"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="80937499"/>
   </r>
   <r>
     <x v="9"/>
     <x v="17"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="80182502"/>
   </r>
   <r>
     <x v="10"/>
     <x v="17"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="81108278"/>
   </r>
   <r>
     <x v="11"/>
     <x v="17"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="85497333"/>
   </r>
   <r>
     <x v="12"/>
     <x v="17"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="97653944"/>
   </r>
   <r>
     <x v="13"/>
     <x v="17"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="76947033"/>
   </r>
   <r>
     <x v="14"/>
     <x v="17"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="101217000"/>
   </r>
   <r>
     <x v="15"/>
     <x v="17"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="100850000"/>
   </r>
   <r>
     <x v="16"/>
     <x v="17"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="68775237"/>
   </r>
   <r>
     <x v="0"/>
     <x v="18"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="16519500"/>
   </r>
   <r>
     <x v="1"/>
     <x v="18"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="24130000"/>
   </r>
   <r>
     <x v="2"/>
     <x v="18"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="40425000"/>
   </r>
   <r>
     <x v="3"/>
     <x v="18"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="55505000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="18"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="53585000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="18"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="56186000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="18"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="63396006"/>
   </r>
   <r>
     <x v="7"/>
     <x v="18"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="71439500"/>
   </r>
   <r>
     <x v="8"/>
     <x v="18"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="56932766"/>
   </r>
   <r>
     <x v="9"/>
     <x v="18"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="65299266"/>
   </r>
   <r>
     <x v="10"/>
     <x v="18"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="97559166"/>
   </r>
   <r>
     <x v="11"/>
     <x v="18"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="112737000"/>
   </r>
   <r>
     <x v="12"/>
     <x v="18"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="94085000"/>
   </r>
   <r>
     <x v="13"/>
     <x v="18"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="75337500"/>
   </r>
   <r>
     <x v="14"/>
     <x v="18"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="83762500"/>
   </r>
   <r>
     <x v="15"/>
     <x v="18"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="107755000"/>
   </r>
   <r>
     <x v="16"/>
     <x v="18"/>
-    <n v="59"/>
+    <x v="47"/>
     <n v="102583200"/>
   </r>
   <r>
     <x v="0"/>
     <x v="19"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="32994333"/>
   </r>
   <r>
     <x v="1"/>
     <x v="19"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="35159500"/>
   </r>
   <r>
     <x v="2"/>
     <x v="19"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="38670500"/>
   </r>
   <r>
     <x v="3"/>
     <x v="19"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="51948500"/>
   </r>
   <r>
     <x v="4"/>
     <x v="19"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="40897500"/>
   </r>
   <r>
     <x v="0"/>
     <x v="20"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="92338260"/>
   </r>
   <r>
     <x v="1"/>
     <x v="20"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="112287143"/>
   </r>
   <r>
     <x v="2"/>
     <x v="20"/>
-    <n v="103"/>
+    <x v="38"/>
     <n v="125928583"/>
   </r>
   <r>
     <x v="3"/>
     <x v="20"/>
-    <n v="101"/>
+    <x v="20"/>
     <n v="152749814"/>
   </r>
   <r>
     <x v="4"/>
     <x v="20"/>
-    <n v="101"/>
+    <x v="20"/>
     <n v="184193950"/>
   </r>
   <r>
     <x v="5"/>
     <x v="20"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="208306817"/>
   </r>
   <r>
     <x v="6"/>
     <x v="20"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="194663079"/>
   </r>
   <r>
     <x v="7"/>
     <x v="20"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="189259045"/>
   </r>
   <r>
     <x v="8"/>
     <x v="20"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="207896789"/>
   </r>
   <r>
     <x v="9"/>
     <x v="20"/>
-    <n v="103"/>
+    <x v="38"/>
     <n v="201449189"/>
   </r>
   <r>
     <x v="10"/>
     <x v="20"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="206333389"/>
   </r>
   <r>
     <x v="11"/>
     <x v="20"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="202275028"/>
   </r>
   <r>
     <x v="12"/>
     <x v="20"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="196522289"/>
   </r>
   <r>
     <x v="13"/>
     <x v="20"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="231978886"/>
   </r>
   <r>
     <x v="14"/>
     <x v="20"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="197543907"/>
   </r>
   <r>
     <x v="15"/>
     <x v="20"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="212751957"/>
   </r>
   <r>
     <x v="16"/>
     <x v="20"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="222997792"/>
   </r>
   <r>
     <x v="0"/>
     <x v="21"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="79509776"/>
   </r>
   <r>
     <x v="1"/>
     <x v="21"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="93174428"/>
   </r>
   <r>
     <x v="2"/>
     <x v="21"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="94633593"/>
   </r>
   <r>
     <x v="3"/>
     <x v="21"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="116876429"/>
   </r>
   <r>
     <x v="4"/>
     <x v="21"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="96660970"/>
   </r>
   <r>
     <x v="5"/>
     <x v="21"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="101305821"/>
   </r>
   <r>
     <x v="6"/>
     <x v="21"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="101084963"/>
   </r>
   <r>
     <x v="7"/>
     <x v="21"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="115231663"/>
   </r>
   <r>
     <x v="8"/>
     <x v="21"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="137793376"/>
   </r>
   <r>
     <x v="9"/>
     <x v="21"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="149373987"/>
   </r>
   <r>
     <x v="10"/>
     <x v="21"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="134422942"/>
   </r>
   <r>
     <x v="11"/>
     <x v="21"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="118847309"/>
   </r>
   <r>
     <x v="12"/>
     <x v="21"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="93353983"/>
   </r>
   <r>
     <x v="13"/>
     <x v="21"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="49448346"/>
   </r>
   <r>
     <x v="14"/>
     <x v="21"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="85556990"/>
   </r>
   <r>
     <x v="15"/>
     <x v="21"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="96766683"/>
   </r>
   <r>
     <x v="16"/>
     <x v="21"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="133889129"/>
   </r>
   <r>
     <x v="0"/>
     <x v="22"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="31971333"/>
   </r>
   <r>
     <x v="1"/>
     <x v="22"/>
-    <n v="102"/>
+    <x v="48"/>
     <n v="33810750"/>
   </r>
   <r>
     <x v="2"/>
     <x v="22"/>
-    <n v="103"/>
+    <x v="38"/>
     <n v="40004167"/>
   </r>
   <r>
     <x v="3"/>
     <x v="22"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="50260834"/>
   </r>
   <r>
     <x v="4"/>
     <x v="22"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="59425667"/>
   </r>
   <r>
     <x v="5"/>
     <x v="22"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="55425762"/>
   </r>
   <r>
     <x v="6"/>
     <x v="22"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="62243079"/>
   </r>
   <r>
     <x v="7"/>
     <x v="22"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="79366940"/>
   </r>
   <r>
     <x v="8"/>
     <x v="22"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="47967126"/>
   </r>
   <r>
     <x v="9"/>
     <x v="22"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="61910000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="22"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="55254900"/>
   </r>
   <r>
     <x v="11"/>
     <x v="22"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="66536500"/>
   </r>
   <r>
     <x v="12"/>
     <x v="22"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="55372500"/>
   </r>
   <r>
     <x v="13"/>
     <x v="22"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="60132500"/>
   </r>
   <r>
     <x v="14"/>
     <x v="22"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="72408400"/>
   </r>
   <r>
     <x v="15"/>
     <x v="22"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="79053501"/>
   </r>
   <r>
     <x v="16"/>
     <x v="22"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="86806234"/>
   </r>
   <r>
     <x v="0"/>
     <x v="23"/>
-    <n v="65"/>
+    <x v="12"/>
     <n v="47308000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="23"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="41663833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="23"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="57954999"/>
   </r>
   <r>
     <x v="3"/>
     <x v="23"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="70780000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="23"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="92919167"/>
   </r>
   <r>
     <x v="5"/>
     <x v="23"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="95522000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="23"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="88273333"/>
   </r>
   <r>
     <x v="7"/>
     <x v="23"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="89428213"/>
   </r>
   <r>
     <x v="8"/>
     <x v="23"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="97879880"/>
   </r>
   <r>
     <x v="9"/>
     <x v="23"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="113004046"/>
   </r>
   <r>
     <x v="10"/>
     <x v="23"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="141928379"/>
   </r>
   <r>
     <x v="11"/>
     <x v="23"/>
-    <n v="102"/>
+    <x v="48"/>
     <n v="172976379"/>
   </r>
   <r>
     <x v="12"/>
     <x v="23"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="174538938"/>
   </r>
   <r>
     <x v="13"/>
     <x v="23"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="169863189"/>
   </r>
   <r>
     <x v="14"/>
     <x v="23"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="180944967"/>
   </r>
   <r>
     <x v="15"/>
     <x v="23"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="111693000"/>
   </r>
   <r>
     <x v="16"/>
     <x v="23"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="58980000"/>
   </r>
   <r>
     <x v="0"/>
     <x v="24"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="28928334"/>
   </r>
   <r>
     <x v="1"/>
     <x v="24"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="57760833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="24"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="42323599"/>
   </r>
   <r>
     <x v="3"/>
     <x v="24"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="54812429"/>
   </r>
   <r>
     <x v="4"/>
     <x v="24"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="32227929"/>
   </r>
   <r>
     <x v="5"/>
     <x v="24"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="38133000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="24"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="46717750"/>
   </r>
   <r>
     <x v="7"/>
     <x v="24"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="38537833"/>
   </r>
   <r>
     <x v="8"/>
     <x v="24"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="48689783"/>
   </r>
   <r>
     <x v="9"/>
     <x v="24"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="48693000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="24"/>
-    <n v="57"/>
+    <x v="49"/>
     <n v="34943000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="24"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="45047000"/>
   </r>
   <r>
     <x v="12"/>
     <x v="24"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="62951999"/>
   </r>
   <r>
     <x v="13"/>
     <x v="24"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="77062000"/>
   </r>
   <r>
     <x v="14"/>
     <x v="24"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="77178000"/>
   </r>
   <r>
     <x v="15"/>
     <x v="24"/>
-    <n v="98"/>
+    <x v="6"/>
     <n v="88892499"/>
   </r>
   <r>
     <x v="16"/>
     <x v="24"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="103778833"/>
   </r>
   <r>
     <x v="0"/>
     <x v="25"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="54821000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="25"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="39182833"/>
   </r>
   <r>
     <x v="2"/>
     <x v="25"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="41425000"/>
   </r>
   <r>
     <x v="3"/>
     <x v="25"/>
-    <n v="64"/>
+    <x v="15"/>
     <n v="45210000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="25"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="55384833"/>
   </r>
   <r>
     <x v="5"/>
     <x v="25"/>
-    <n v="82"/>
+    <x v="0"/>
     <n v="63290833"/>
   </r>
   <r>
     <x v="6"/>
     <x v="25"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="69896141"/>
   </r>
   <r>
     <x v="7"/>
     <x v="25"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="58110567"/>
   </r>
   <r>
     <x v="8"/>
     <x v="25"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="73677616"/>
   </r>
   <r>
     <x v="9"/>
     <x v="25"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="43333700"/>
   </r>
   <r>
     <x v="10"/>
     <x v="25"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="37799300"/>
   </r>
   <r>
     <x v="11"/>
     <x v="25"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="45869140"/>
   </r>
   <r>
     <x v="12"/>
     <x v="25"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="55244700"/>
   </r>
   <r>
     <x v="13"/>
     <x v="25"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="65585500"/>
   </r>
   <r>
     <x v="14"/>
     <x v="25"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="75685700"/>
   </r>
   <r>
     <x v="15"/>
     <x v="25"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="118441300"/>
   </r>
   <r>
     <x v="16"/>
     <x v="25"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="101424814"/>
   </r>
   <r>
     <x v="0"/>
     <x v="26"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="58915000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="26"/>
-    <n v="116"/>
+    <x v="50"/>
     <n v="74720834"/>
   </r>
   <r>
     <x v="2"/>
     <x v="26"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="80282668"/>
   </r>
   <r>
     <x v="3"/>
     <x v="26"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="86959167"/>
   </r>
   <r>
     <x v="4"/>
     <x v="26"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="81515834"/>
   </r>
   <r>
     <x v="5"/>
     <x v="26"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="87754334"/>
   </r>
   <r>
     <x v="6"/>
     <x v="26"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="87959833"/>
   </r>
   <r>
     <x v="7"/>
     <x v="26"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="106460833"/>
   </r>
   <r>
     <x v="8"/>
     <x v="26"/>
-    <n v="61"/>
+    <x v="37"/>
     <n v="117666482"/>
   </r>
   <r>
     <x v="9"/>
     <x v="26"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="98904166"/>
   </r>
   <r>
     <x v="10"/>
     <x v="26"/>
-    <n v="61"/>
+    <x v="37"/>
     <n v="86510000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="26"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="86110600"/>
   </r>
   <r>
     <x v="12"/>
     <x v="26"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="81978100"/>
   </r>
   <r>
     <x v="13"/>
     <x v="26"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="74005043"/>
   </r>
   <r>
     <x v="14"/>
     <x v="26"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="92531100"/>
   </r>
   <r>
     <x v="15"/>
     <x v="26"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="122208700"/>
   </r>
   <r>
     <x v="16"/>
     <x v="26"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="135683339"/>
   </r>
   <r>
     <x v="0"/>
     <x v="27"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="53737826"/>
   </r>
   <r>
     <x v="1"/>
     <x v="27"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="63280167"/>
   </r>
   <r>
     <x v="2"/>
     <x v="27"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="78299835"/>
   </r>
   <r>
     <x v="3"/>
     <x v="27"/>
-    <n v="100"/>
+    <x v="46"/>
     <n v="82852167"/>
   </r>
   <r>
     <x v="4"/>
     <x v="27"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="82019166"/>
   </r>
   <r>
     <x v="5"/>
     <x v="27"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="90199500"/>
   </r>
   <r>
     <x v="6"/>
     <x v="27"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="90056419"/>
   </r>
   <r>
     <x v="7"/>
     <x v="27"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="90219056"/>
   </r>
   <r>
     <x v="8"/>
     <x v="27"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="76594500"/>
   </r>
   <r>
     <x v="9"/>
     <x v="27"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="83026450"/>
   </r>
   <r>
     <x v="10"/>
     <x v="27"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="98641333"/>
   </r>
   <r>
     <x v="11"/>
     <x v="27"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="118198333"/>
   </r>
   <r>
     <x v="12"/>
     <x v="27"/>
-    <n v="94"/>
+    <x v="13"/>
     <n v="117620683"/>
   </r>
   <r>
     <x v="13"/>
     <x v="27"/>
-    <n v="76"/>
+    <x v="9"/>
     <n v="140180334"/>
   </r>
   <r>
     <x v="14"/>
     <x v="27"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="163510167"/>
   </r>
   <r>
     <x v="15"/>
     <x v="27"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="164701500"/>
   </r>
   <r>
     <x v="16"/>
     <x v="27"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="172253778"/>
   </r>
   <r>
     <x v="0"/>
     <x v="28"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="61453863"/>
   </r>
   <r>
     <x v="1"/>
     <x v="28"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="78538333"/>
   </r>
   <r>
     <x v="2"/>
     <x v="28"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="74660875"/>
   </r>
   <r>
     <x v="3"/>
     <x v="28"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="83786666"/>
   </r>
   <r>
     <x v="4"/>
     <x v="28"/>
-    <n v="105"/>
+    <x v="51"/>
     <n v="83228333"/>
   </r>
   <r>
     <x v="5"/>
     <x v="28"/>
-    <n v="100"/>
+    <x v="46"/>
     <n v="92106833"/>
   </r>
   <r>
     <x v="6"/>
     <x v="28"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="88891371"/>
   </r>
   <r>
     <x v="7"/>
     <x v="28"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="90286823"/>
   </r>
   <r>
     <x v="8"/>
     <x v="28"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="99624449"/>
   </r>
   <r>
     <x v="9"/>
     <x v="28"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="88528409"/>
   </r>
   <r>
     <x v="10"/>
     <x v="28"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="93540751"/>
   </r>
   <r>
     <x v="11"/>
     <x v="28"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="105433572"/>
   </r>
   <r>
     <x v="12"/>
     <x v="28"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="110300862"/>
   </r>
   <r>
     <x v="13"/>
     <x v="28"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="92260110"/>
   </r>
   <r>
     <x v="14"/>
     <x v="28"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="120693000"/>
   </r>
   <r>
     <x v="15"/>
     <x v="28"/>
-    <n v="100"/>
+    <x v="46"/>
     <n v="119241500"/>
   </r>
   <r>
     <x v="16"/>
     <x v="28"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="143053500"/>
   </r>
   <r>
     <x v="0"/>
     <x v="29"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="62765129"/>
   </r>
   <r>
     <x v="1"/>
     <x v="29"/>
-    <n v="62"/>
+    <x v="44"/>
     <n v="56980000"/>
   </r>
   <r>
     <x v="2"/>
     <x v="29"/>
-    <n v="55"/>
+    <x v="40"/>
     <n v="34380000"/>
   </r>
   <r>
     <x v="3"/>
     <x v="29"/>
-    <n v="63"/>
+    <x v="29"/>
     <n v="19630000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="29"/>
-    <n v="70"/>
+    <x v="11"/>
     <n v="29556667"/>
   </r>
   <r>
     <x v="5"/>
     <x v="29"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="29679067"/>
   </r>
   <r>
     <x v="6"/>
     <x v="29"/>
-    <n v="61"/>
+    <x v="37"/>
     <n v="34917967"/>
   </r>
   <r>
     <x v="7"/>
     <x v="29"/>
-    <n v="66"/>
+    <x v="32"/>
     <n v="24123500"/>
   </r>
   <r>
     <x v="8"/>
     <x v="29"/>
-    <n v="97"/>
+    <x v="34"/>
     <n v="43820597"/>
   </r>
   <r>
     <x v="9"/>
     <x v="29"/>
-    <n v="84"/>
+    <x v="7"/>
     <n v="63313034"/>
   </r>
   <r>
     <x v="10"/>
     <x v="29"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="71923471"/>
   </r>
   <r>
     <x v="11"/>
     <x v="29"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="41053571"/>
   </r>
   <r>
     <x v="12"/>
     <x v="29"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="64173500"/>
   </r>
   <r>
     <x v="13"/>
     <x v="29"/>
-    <n v="92"/>
+    <x v="4"/>
     <n v="52955272"/>
   </r>
   <r>
     <x v="14"/>
     <x v="29"/>
-    <n v="77"/>
+    <x v="3"/>
     <n v="72689100"/>
   </r>
   <r>
     <x v="15"/>
     <x v="29"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="64521233"/>
   </r>
   <r>
     <x v="16"/>
     <x v="29"/>
-    <n v="68"/>
+    <x v="27"/>
     <n v="57097310"/>
   </r>
   <r>
     <x v="0"/>
     <x v="30"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="70795921"/>
   </r>
   <r>
     <x v="1"/>
     <x v="30"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="88633500"/>
   </r>
   <r>
     <x v="2"/>
     <x v="30"/>
-    <n v="72"/>
+    <x v="22"/>
     <n v="105526122"/>
   </r>
   <r>
     <x v="3"/>
     <x v="30"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="103491667"/>
   </r>
   <r>
     <x v="4"/>
     <x v="30"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="55050417"/>
   </r>
   <r>
     <x v="5"/>
     <x v="30"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="55849000"/>
   </r>
   <r>
     <x v="6"/>
     <x v="30"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="68228662"/>
   </r>
   <r>
     <x v="7"/>
     <x v="30"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="68318675"/>
   </r>
   <r>
     <x v="8"/>
     <x v="30"/>
-    <n v="79"/>
+    <x v="16"/>
     <n v="67712326"/>
   </r>
   <r>
     <x v="9"/>
     <x v="30"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="68178798"/>
   </r>
   <r>
     <x v="10"/>
     <x v="30"/>
-    <n v="90"/>
+    <x v="10"/>
     <n v="55250544"/>
   </r>
   <r>
     <x v="11"/>
     <x v="30"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="92299264"/>
   </r>
   <r>
     <x v="12"/>
     <x v="30"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="120510974"/>
   </r>
   <r>
     <x v="13"/>
     <x v="30"/>
-    <n v="91"/>
+    <x v="24"/>
     <n v="112522600"/>
   </r>
   <r>
     <x v="14"/>
     <x v="30"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="112255059"/>
   </r>
   <r>
     <x v="15"/>
     <x v="30"/>
-    <n v="88"/>
+    <x v="19"/>
     <n v="143742789"/>
   </r>
   <r>
     <x v="16"/>
     <x v="30"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="176038723"/>
   </r>
   <r>
     <x v="0"/>
     <x v="31"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="44838332"/>
   </r>
   <r>
     <x v="1"/>
     <x v="31"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="76895999"/>
   </r>
   <r>
     <x v="2"/>
     <x v="31"/>
-    <n v="78"/>
+    <x v="31"/>
     <n v="76864333"/>
   </r>
   <r>
     <x v="3"/>
     <x v="31"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="51269000"/>
   </r>
   <r>
     <x v="4"/>
     <x v="31"/>
-    <n v="67"/>
+    <x v="26"/>
     <n v="50017000"/>
   </r>
   <r>
     <x v="5"/>
     <x v="31"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="45719500"/>
   </r>
   <r>
     <x v="6"/>
     <x v="31"/>
-    <n v="87"/>
+    <x v="42"/>
     <n v="71365000"/>
   </r>
   <r>
     <x v="7"/>
     <x v="31"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="81942800"/>
   </r>
   <r>
     <x v="8"/>
     <x v="31"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="97793900"/>
   </r>
   <r>
     <x v="9"/>
     <x v="31"/>
-    <n v="75"/>
+    <x v="1"/>
     <n v="80538300"/>
   </r>
   <r>
     <x v="10"/>
     <x v="31"/>
-    <n v="85"/>
+    <x v="5"/>
     <n v="62234000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="31"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="62567800"/>
   </r>
   <r>
     <x v="12"/>
     <x v="31"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="75009200"/>
   </r>
   <r>
     <x v="13"/>
     <x v="31"/>
-    <n v="74"/>
+    <x v="28"/>
     <n v="126288100"/>
   </r>
   <r>
     <x v="14"/>
     <x v="31"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="109920100"/>
   </r>
   <r>
     <x v="15"/>
     <x v="31"/>
-    <n v="93"/>
+    <x v="33"/>
     <n v="112992400"/>
   </r>
   <r>
     <x v="16"/>
     <x v="31"/>
-    <n v="89"/>
+    <x v="25"/>
     <n v="138701700"/>
   </r>
   <r>
     <x v="5"/>
     <x v="32"/>
-    <n v="81"/>
+    <x v="14"/>
     <n v="48581500"/>
   </r>
   <r>
     <x v="6"/>
     <x v="32"/>
-    <n v="71"/>
+    <x v="30"/>
     <n v="63143000"/>
   </r>
   <r>
     <x v="7"/>
     <x v="32"/>
-    <n v="73"/>
+    <x v="36"/>
     <n v="36947500"/>
   </r>
   <r>
     <x v="8"/>
     <x v="32"/>
-    <n v="59"/>
+    <x v="47"/>
     <n v="54961000"/>
   </r>
   <r>
     <x v="9"/>
     <x v="32"/>
-    <n v="59"/>
+    <x v="47"/>
     <n v="59928000"/>
   </r>
   <r>
     <x v="10"/>
     <x v="32"/>
-    <n v="69"/>
+    <x v="17"/>
     <n v="61400000"/>
   </r>
   <r>
     <x v="11"/>
     <x v="32"/>
-    <n v="80"/>
+    <x v="39"/>
     <n v="63856928"/>
   </r>
   <r>
     <x v="12"/>
     <x v="32"/>
-    <n v="98"/>
+    <x v="6"/>
     <n v="80855143"/>
   </r>
   <r>
     <x v="13"/>
     <x v="32"/>
-    <n v="86"/>
+    <x v="23"/>
     <n v="113703270"/>
   </r>
   <r>
     <x v="14"/>
     <x v="32"/>
-    <n v="96"/>
+    <x v="21"/>
     <n v="131983680"/>
   </r>
   <r>
     <x v="15"/>
     <x v="32"/>
-    <n v="83"/>
+    <x v="35"/>
     <n v="155587472"/>
   </r>
   <r>
     <x v="16"/>
     <x v="32"/>
-    <n v="95"/>
+    <x v="18"/>
     <n v="141652646"/>
   </r>
   <r>
     <x v="17"/>
     <x v="33"/>
-    <m/>
+    <x v="52"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFE48FD-DB0F-49FB-9305-6B57E13980A8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAFE48FD-DB0F-49FB-9305-6B57E13980A8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="19">
@@ -4845,7 +4904,7 @@
         <item h="1" x="13"/>
         <item h="1" x="14"/>
         <item h="1" x="15"/>
-        <item h="1" x="16"/>
+        <item x="16"/>
         <item h="1" x="17"/>
         <item h="1" x="18"/>
         <item h="1" x="20"/>
@@ -4860,7 +4919,7 @@
         <item h="1" x="29"/>
         <item h="1" x="30"/>
         <item h="1" x="31"/>
-        <item x="32"/>
+        <item h="1" x="32"/>
         <item h="1" x="33"/>
         <item t="default"/>
       </items>
@@ -4872,30 +4931,9 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="7">
     <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
+      <x v="17"/>
     </i>
     <i r="1">
       <x v="12"/>
@@ -4961,6 +4999,60 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_teamid" xr10:uid="{D6EBBD1B-A840-4876-94D2-20973C2F7622}" sourceName="teamid">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="622244580">
+      <items count="34">
+        <i x="19"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
+        <i x="5"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12"/>
+        <i x="13"/>
+        <i x="14"/>
+        <i x="15"/>
+        <i x="16" s="1"/>
+        <i x="17"/>
+        <i x="18"/>
+        <i x="20"/>
+        <i x="21"/>
+        <i x="22"/>
+        <i x="23"/>
+        <i x="24"/>
+        <i x="25"/>
+        <i x="26"/>
+        <i x="27"/>
+        <i x="28"/>
+        <i x="29"/>
+        <i x="30"/>
+        <i x="31"/>
+        <i x="32"/>
+        <i x="33" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="teamid" xr10:uid="{52738D90-48E3-415E-A8C2-80B5C356BB0E}" cache="Slicer_teamid" caption="teamid" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12434,7 +12526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458A6A32-53DA-4F29-A4F7-0D5DA257FC0B}">
   <dimension ref="A3:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
@@ -12458,124 +12550,82 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
-        <v>950</v>
+        <v>358</v>
       </c>
       <c r="C4" s="5">
-        <v>1012600139</v>
+        <v>338887502</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B5" s="5">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5">
-        <v>48581500</v>
+        <v>118078000</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B6" s="5">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5">
-        <v>63143000</v>
+        <v>33601900</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5">
-        <v>36947500</v>
+        <v>41836900</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B8" s="5">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5">
-        <v>54961000</v>
+        <v>68056500</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="5">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5">
-        <v>59928000</v>
+        <v>77314202</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2010</v>
+      <c r="A10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="5">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="C10" s="5">
-        <v>61400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="5">
-        <v>80</v>
-      </c>
-      <c r="C11" s="5">
-        <v>63856928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="5">
-        <v>98</v>
-      </c>
-      <c r="C12" s="5">
-        <v>80855143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="5">
-        <v>86</v>
-      </c>
-      <c r="C13" s="5">
-        <v>113703270</v>
+        <v>338887502</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="5">
-        <v>96</v>
-      </c>
-      <c r="C14" s="5">
-        <v>131983680</v>
-      </c>
       <c r="X14" t="s">
         <v>20</v>
       </c>
@@ -12583,38 +12633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="5">
-        <v>83</v>
-      </c>
-      <c r="C15" s="5">
-        <v>155587472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="5">
-        <v>95</v>
-      </c>
-      <c r="C16" s="5">
-        <v>141652646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5">
-        <v>950</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1012600139</v>
-      </c>
+    <row r="17" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X17" t="s">
         <v>28</v>
       </c>
@@ -12622,7 +12641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X20" t="s">
         <v>29</v>
       </c>
@@ -12630,7 +12649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="24:25" x14ac:dyDescent="0.25">
       <c r="X22" t="s">
         <v>36</v>
       </c>
@@ -12638,12 +12657,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="24:25" x14ac:dyDescent="0.25">
       <c r="Y23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="24:25" x14ac:dyDescent="0.25">
       <c r="Y24" t="s">
         <v>46</v>
       </c>
@@ -12651,5 +12670,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>